--- a/promo_urls.xlsx
+++ b/promo_urls.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/bedding-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:04+00:00</t>
+          <t>2026-02-14T09:46:47+00:00</t>
         </is>
       </c>
     </row>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/Sale</t>
+          <t>https://www.harveynorman.ie/5-day-mattress-sale.html</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:46+00:00</t>
+          <t>2026-02-14T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:00+00:00</t>
+          <t>2026-02-14T09:45:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:52+00:00</t>
+          <t>2026-02-14T09:47:05+00:00</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:11+00:00</t>
+          <t>2026-02-14T09:46:53+00:00</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:55+00:00</t>
+          <t>2026-02-14T09:45:35+00:00</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:07+00:00</t>
+          <t>2026-02-14T09:47:20+00:00</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:56+00:00</t>
+          <t>2026-02-14T09:46:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:38+00:00</t>
+          <t>2026-02-14T09:46:21+00:00</t>
         </is>
       </c>
     </row>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2026-02-13T16:04:57+00:00</t>
+          <t>2026-02-14T09:47:09+00:00</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2026-02-13T16:02:51+00:00</t>
+          <t>2026-02-14T09:45:32+00:00</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:44+00:00</t>
+          <t>2026-02-14T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:05+00:00</t>
+          <t>2026-02-14T09:45:45+00:00</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:30+00:00</t>
+          <t>2026-02-14T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:25+00:00</t>
+          <t>2026-02-14T09:46:10+00:00</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:14+00:00</t>
+          <t>2026-02-14T09:45:53+00:00</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2026-02-13T16:03:09+00:00</t>
+          <t>2026-02-14T09:45:50+00:00</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:02+00:00</t>
+          <t>2026-02-14T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2026-02-13T16:05:11+00:00</t>
+          <t>2026-02-14T09:47:25+00:00</t>
         </is>
       </c>
     </row>

--- a/promo_urls.xlsx
+++ b/promo_urls.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:47+00:00</t>
+          <t>2026-02-14T14:08:32+00:00</t>
         </is>
       </c>
     </row>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/5-day-mattress-sale.html</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:59+00:00</t>
+          <t>2026-02-14T14:08:44+00:00</t>
         </is>
       </c>
     </row>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:39+00:00</t>
+          <t>2026-02-14T14:07:26+00:00</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:05+00:00</t>
+          <t>2026-02-14T14:08:50+00:00</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:53+00:00</t>
+          <t>2026-02-14T14:08:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:35+00:00</t>
+          <t>2026-02-14T14:07:23+00:00</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:20+00:00</t>
+          <t>2026-02-14T14:09:07+00:00</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:39+00:00</t>
+          <t>2026-02-14T14:08:24+00:00</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:21+00:00</t>
+          <t>2026-02-14T14:08:06+00:00</t>
         </is>
       </c>
     </row>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:09+00:00</t>
+          <t>2026-02-14T14:08:56+00:00</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:32+00:00</t>
+          <t>2026-02-14T14:07:18+00:00</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:28+00:00</t>
+          <t>2026-02-14T14:08:13+00:00</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:45+00:00</t>
+          <t>2026-02-14T14:07:31+00:00</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:14+00:00</t>
+          <t>2026-02-14T14:07:57+00:00</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2026-02-14T09:46:10+00:00</t>
+          <t>2026-02-14T14:07:53+00:00</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:53+00:00</t>
+          <t>2026-02-14T14:07:40+00:00</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2026-02-14T09:45:50+00:00</t>
+          <t>2026-02-14T14:07:37+00:00</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:15+00:00</t>
+          <t>2026-02-14T14:09:03+00:00</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2026-02-14T09:47:25+00:00</t>
+          <t>2026-02-14T14:09:13+00:00</t>
         </is>
       </c>
     </row>

--- a/promo_urls.xlsx
+++ b/promo_urls.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:32+00:00</t>
+          <t>2026-02-15T09:48:09+00:00</t>
         </is>
       </c>
     </row>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/5-day-mattress-sale.html</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:44+00:00</t>
+          <t>2026-02-15T09:48:21+00:00</t>
         </is>
       </c>
     </row>
@@ -12951,7 +12951,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:26+00:00</t>
+          <t>2026-02-15T09:46:59+00:00</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:50+00:00</t>
+          <t>2026-02-15T09:48:28+00:00</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:39+00:00</t>
+          <t>2026-02-15T09:48:16+00:00</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:23+00:00</t>
+          <t>2026-02-15T09:46:55+00:00</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:07+00:00</t>
+          <t>2026-02-15T09:48:41+00:00</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:24+00:00</t>
+          <t>2026-02-15T09:48:00+00:00</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:06+00:00</t>
+          <t>2026-02-15T09:47:41+00:00</t>
         </is>
       </c>
     </row>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:56+00:00</t>
+          <t>2026-02-15T09:48:32+00:00</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:18+00:00</t>
+          <t>2026-02-15T09:46:51+00:00</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2026-02-14T14:08:13+00:00</t>
+          <t>2026-02-15T09:47:49+00:00</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:31+00:00</t>
+          <t>2026-02-15T09:47:04+00:00</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:57+00:00</t>
+          <t>2026-02-15T09:47:33+00:00</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:53+00:00</t>
+          <t>2026-02-15T09:47:29+00:00</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:40+00:00</t>
+          <t>2026-02-15T09:47:15+00:00</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2026-02-14T14:07:37+00:00</t>
+          <t>2026-02-15T09:47:08+00:00</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:03+00:00</t>
+          <t>2026-02-15T09:48:37+00:00</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2026-02-14T14:09:13+00:00</t>
+          <t>2026-02-15T09:48:47+00:00</t>
         </is>
       </c>
     </row>

--- a/promo_urls.xlsx
+++ b/promo_urls.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/corporate-information/online-sale-terms.html</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:54+00:00</t>
+          <t>2026-02-18T10:06:33+00:00</t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:41+00:00</t>
+          <t>2026-02-18T10:05:54+00:00</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:01+00:00</t>
+          <t>2026-02-18T10:06:39+00:00</t>
         </is>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:49+00:00</t>
+          <t>2026-02-18T10:06:00+00:00</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:33+00:00</t>
+          <t>2026-02-18T10:04:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:14+00:00</t>
+          <t>2026-02-18T10:06:55+00:00</t>
         </is>
       </c>
     </row>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:05+00:00</t>
+          <t>2026-02-18T10:06:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:29+00:00</t>
+          <t>2026-02-18T10:04:42+00:00</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:16+00:00</t>
+          <t>2026-02-18T10:05:28+00:00</t>
         </is>
       </c>
     </row>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:38+00:00</t>
+          <t>2026-02-18T10:04:49+00:00</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:33+00:00</t>
+          <t>2026-02-18T10:05:46+00:00</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:23+00:00</t>
+          <t>2026-02-18T10:05:36+00:00</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:43+00:00</t>
+          <t>2026-02-18T10:04:54+00:00</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:09+00:00</t>
+          <t>2026-02-18T10:05:20+00:00</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2026-02-17T10:06:05+00:00</t>
+          <t>2026-02-18T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:51+00:00</t>
+          <t>2026-02-18T10:05:02+00:00</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2026-02-17T10:05:48+00:00</t>
+          <t>2026-02-18T10:04:58+00:00</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:10+00:00</t>
+          <t>2026-02-18T10:06:51+00:00</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2026-02-17T10:07:19+00:00</t>
+          <t>2026-02-18T10:07:02+00:00</t>
         </is>
       </c>
     </row>

--- a/promo_urls.xlsx
+++ b/promo_urls.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:33+00:00</t>
+          <t>2026-02-19T10:05:34+00:00</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:54+00:00</t>
+          <t>2026-02-19T10:05:23+00:00</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:39+00:00</t>
+          <t>2026-02-19T10:05:40+00:00</t>
         </is>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:00+00:00</t>
+          <t>2026-02-19T10:05:30+00:00</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:45+00:00</t>
+          <t>2026-02-19T10:04:13+00:00</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:55+00:00</t>
+          <t>2026-02-19T10:05:56+00:00</t>
         </is>
       </c>
     </row>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:45+00:00</t>
+          <t>2026-02-19T10:05:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:42+00:00</t>
+          <t>2026-02-19T10:04:10+00:00</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:28+00:00</t>
+          <t>2026-02-19T10:04:56+00:00</t>
         </is>
       </c>
     </row>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:49+00:00</t>
+          <t>2026-02-19T10:04:18+00:00</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:46+00:00</t>
+          <t>2026-02-19T10:05:15+00:00</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:36+00:00</t>
+          <t>2026-02-19T10:05:04+00:00</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:54+00:00</t>
+          <t>2026-02-19T10:04:22+00:00</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:20+00:00</t>
+          <t>2026-02-19T10:04:47+00:00</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:15+00:00</t>
+          <t>2026-02-19T10:04:43+00:00</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2026-02-18T10:05:02+00:00</t>
+          <t>2026-02-19T10:04:31+00:00</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2026-02-18T10:04:58+00:00</t>
+          <t>2026-02-19T10:04:27+00:00</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2026-02-18T10:06:51+00:00</t>
+          <t>2026-02-19T10:05:52+00:00</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2026-02-18T10:07:02+00:00</t>
+          <t>2026-02-19T10:06:02+00:00</t>
         </is>
       </c>
     </row>

--- a/promo_urls.xlsx
+++ b/promo_urls.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/value-offers.html</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3831,14 +3831,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3848,17 +3848,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/</t>
+          <t>https://www.harveynorman.ie/</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3871,14 +3871,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3888,17 +3888,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/</t>
+          <t>https://www.harveynorman.ie/</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -3991,14 +3991,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4008,17 +4008,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/</t>
+          <t>https://www.ikea.com/ie/en/</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4151,47 +4151,47 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>R&amp;C McCormack</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/</t>
+          <t>https://www.ikea.com/ie/en/</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>celticdublin.com</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/outlet</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>common_path</t>
+          <t>homepage_scan</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/weekly-ad</t>
+          <t>https://celticdublin.com/outlet</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -7391,34 +7391,34 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Lavish Nail Spa &amp; Beauty</t>
+          <t>R&amp;C McCormack</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/</t>
+          <t>https://celticdublin.com/</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>lavishnails.ie</t>
+          <t>celticdublin.com</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/sales</t>
+          <t>https://celticdublin.com/weekly-ad</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/offer</t>
+          <t>https://lavishnails.ie/sale</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/promotion</t>
+          <t>https://lavishnails.ie/sales</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/clearance</t>
+          <t>https://lavishnails.ie/offer</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/deals</t>
+          <t>https://lavishnails.ie/promotion</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/weekly-ad</t>
+          <t>https://lavishnails.ie/clearance</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/weeklyad</t>
+          <t>https://lavishnails.ie/deals</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/catalog</t>
+          <t>https://lavishnails.ie/weekly-ad</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/leaflet</t>
+          <t>https://lavishnails.ie/weeklyad</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/outlet</t>
+          <t>https://lavishnails.ie/catalog</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -7791,14 +7791,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>New YorKi Nails</t>
+          <t>Lavish Nail Spa &amp; Beauty</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7808,17 +7808,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://newyorkinails.com/</t>
+          <t>https://lavishnails.ie/</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>newyorkinails.com</t>
+          <t>lavishnails.ie</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://newyorkinails.com/catalog</t>
+          <t>https://lavishnails.ie/leaflet</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -7831,14 +7831,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>New YorKi Nails</t>
+          <t>Lavish Nail Spa &amp; Beauty</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7848,17 +7848,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://newyorkinails.com/</t>
+          <t>https://lavishnails.ie/</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>newyorkinails.com</t>
+          <t>lavishnails.ie</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://newyorkinails.com/leaflet</t>
+          <t>https://lavishnails.ie/outlet</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -7871,14 +7871,14 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>New YorKi Nails</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -7888,17 +7888,17 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/</t>
+          <t>https://newyorkinails.com/</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>sisuclinic.com</t>
+          <t>newyorkinails.com</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/sales</t>
+          <t>https://newyorkinails.com/catalog</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -7911,14 +7911,14 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>New YorKi Nails</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7928,17 +7928,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/</t>
+          <t>https://newyorkinails.com/</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>sisuclinic.com</t>
+          <t>newyorkinails.com</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/offer</t>
+          <t>https://newyorkinails.com/leaflet</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/promotion</t>
+          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/sales</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -7991,34 +7991,34 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Jack Wills</t>
+          <t>SISU Clinic</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>perfumes/beauty</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.jackwills.com/dublinjw-store-2264</t>
+          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>www.jackwills.com</t>
+          <t>sisuclinic.com</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://www.jackwills.com/dublinjw-store-2264/offer</t>
+          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/offer</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -8031,14 +8031,14 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>La Mode</t>
+          <t>SISU Clinic</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8048,17 +8048,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://www.lamode.ie/</t>
+          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>www.lamode.ie</t>
+          <t>sisuclinic.com</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://www.lamode.ie/catalog</t>
+          <t>https://sisuclinic.com/sisu-clinic-ranelagh-dublin/promotion</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://www.lamode.ie/outlet</t>
+          <t>https://www.lamode.ie/catalog</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -8151,14 +8151,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ASHA</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -8168,17 +8168,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/</t>
+          <t>https://khan.ie/</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>www.stephensgreen.com</t>
+          <t>khan.ie</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/outlet</t>
+          <t>https://khan.ie/sale</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/catalog</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/outlet</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/deals</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/catalog</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8431,14 +8431,14 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>ASHA</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -8448,17 +8448,17 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://khan.ie/</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>khan.ie</t>
+          <t>www.stephensgreen.com</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://khan.ie/sales</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/deals</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://www.jackwills.com/dublinjw-store-2264/sales</t>
+          <t>https://www.jackwills.com/dublinjw-store-2264/sale</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://www.jackwills.com/dublinjw-store-2264/deals</t>
+          <t>https://www.jackwills.com/dublinjw-store-2264/offer</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -8551,34 +8551,34 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Lavish Nail Spa &amp; Beauty</t>
+          <t>Jack Wills</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/</t>
+          <t>https://www.jackwills.com/dublinjw-store-2264</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>lavishnails.ie</t>
+          <t>www.jackwills.com</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://lavishnails.ie/sale</t>
+          <t>https://www.jackwills.com/dublinjw-store-2264/sales</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://www.jackwills.com/dublinjw-store-2264/weeklyad</t>
+          <t>https://www.jackwills.com/dublinjw-store-2264/clearance</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -8671,14 +8671,14 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Jack Wills</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -8688,17 +8688,17 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/</t>
+          <t>https://www.jackwills.com/dublinjw-store-2264</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.jackwills.com</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/outlet</t>
+          <t>https://www.jackwills.com/dublinjw-store-2264/weeklyad</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -8751,14 +8751,14 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ASHA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -8768,17 +8768,17 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/</t>
+          <t>https://weaversofireland.com/</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>www.stephensgreen.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/sale</t>
+          <t>https://weaversofireland.com/outlet</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/promotion</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/sale</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -8871,34 +8871,34 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>La Mode</t>
+          <t>ASHA</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.lamode.ie/</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>www.lamode.ie</t>
+          <t>www.stephensgreen.com</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://www.lamode.ie/deals</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://www.lamode.ie/weekly-ad</t>
+          <t>https://www.lamode.ie/deals</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://www.lamode.ie/offer</t>
+          <t>https://www.lamode.ie/weekly-ad</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9311,34 +9311,34 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Currys</t>
+          <t>La Mode</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>gadgets/electronics</t>
+          <t>perfumes/beauty</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://www.currys.ie/</t>
+          <t>https://www.lamode.ie/</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>www.currys.ie</t>
+          <t>www.lamode.ie</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://www.currys.ie/weekly-ad</t>
+          <t>https://www.lamode.ie/offer</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://www.currys.ie/weeklyad</t>
+          <t>https://www.currys.ie/deals</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://www.currys.ie/deals</t>
+          <t>https://www.currys.ie/weekly-ad</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -9431,34 +9431,34 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Next Home</t>
+          <t>Currys</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>gadgets/electronics</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://www.next.co.uk/homeware</t>
+          <t>https://www.currys.ie/</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>www.next.co.uk</t>
+          <t>www.currys.ie</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://www.next.co.uk/homeware/sales</t>
+          <t>https://www.currys.ie/weeklyad</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -9471,14 +9471,14 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Next Home</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -9488,17 +9488,17 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/</t>
+          <t>https://www.next.co.uk/homeware</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.next.co.uk</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/leaflet</t>
+          <t>https://www.next.co.uk/homeware/sales</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/weekly-ad</t>
+          <t>https://www.ikea.com/ie/en/leaflet</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/weeklyad</t>
+          <t>https://www.ikea.com/ie/en/deals</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -9711,34 +9711,34 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ASHA</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/</t>
+          <t>https://www.ikea.com/ie/en/</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>www.stephensgreen.com</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
+          <t>https://www.ikea.com/ie/en/weekly-ad</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -9751,14 +9751,14 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Jack Wills</t>
+          <t>ASHA</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -9768,17 +9768,17 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.jackwills.com/dublinjw-store-2264</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>www.jackwills.com</t>
+          <t>www.stephensgreen.com</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://www.jackwills.com/dublinjw-store-2264/sale</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/promotion</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://khan.ie/sale</t>
+          <t>https://khan.ie/sales</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -9831,34 +9831,34 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Jack Wills</t>
+          <t>La Mode</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>perfumes/beauty</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.jackwills.com/dublinjw-store-2264</t>
+          <t>https://www.lamode.ie/</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>www.jackwills.com</t>
+          <t>www.lamode.ie</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://www.jackwills.com/dublinjw-store-2264/clearance</t>
+          <t>https://www.lamode.ie/outlet</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -9951,34 +9951,34 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Jack Wills</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/</t>
+          <t>https://www.jackwills.com/dublinjw-store-2264</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.jackwills.com</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/sales</t>
+          <t>https://www.jackwills.com/dublinjw-store-2264/deals</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/clearance</t>
+          <t>https://www.ikea.com/ie/en/sales</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/deals</t>
+          <t>https://www.ikea.com/ie/en/clearance</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -10191,14 +10191,14 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Next Home</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -10208,17 +10208,17 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://www.next.co.uk/homeware</t>
+          <t>https://www.ikea.com/ie/en/</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>www.next.co.uk</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://www.next.co.uk/homeware/outlet</t>
+          <t>https://www.ikea.com/ie/en/weeklyad</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10298,7 +10298,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://www.next.co.uk/homeware/weekly-ad</t>
+          <t>https://www.next.co.uk/homeware/outlet</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10591,34 +10591,34 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Next Home</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/</t>
+          <t>https://www.next.co.uk/homeware</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.next.co.uk</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/clearance</t>
+          <t>https://www.next.co.uk/homeware/weekly-ad</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/deals</t>
+          <t>https://weaversofireland.com/promotion</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/promotion</t>
+          <t>https://weaversofireland.com/clearance</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/offer</t>
+          <t>https://weaversofireland.com/deals</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -10751,34 +10751,34 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/</t>
+          <t>https://weaversofireland.com/</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://weaversofireland.com/offer</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10831,34 +10831,34 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/</t>
+          <t>https://www.harveynorman.ie/</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/sales</t>
+          <t>https://www.harveynorman.ie/offer</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -10911,34 +10911,34 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/</t>
+          <t>https://weaversofireland.com/</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/sales</t>
+          <t>https://weaversofireland.com/sales</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/offer</t>
+          <t>https://www.harveynorman.ie/sale</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/sale</t>
+          <t>https://www.harveynorman.ie/sales</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -11471,34 +11471,34 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/</t>
+          <t>https://www.harveynorman.ie/</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/leaflet</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -11538,7 +11538,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/catalog</t>
+          <t>https://weaversofireland.com/leaflet</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -11578,7 +11578,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/weeklyad</t>
+          <t>https://weaversofireland.com/catalog</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -11591,34 +11591,34 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Diamant</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/</t>
+          <t>https://weaversofireland.com/</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>www.diamant.ie</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/promotion</t>
+          <t>https://weaversofireland.com/weeklyad</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -11631,14 +11631,14 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Diamant</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -11648,17 +11648,17 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://rocks.ie/</t>
+          <t>https://www.diamant.ie/</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.diamant.ie</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://rocks.ie/outlet</t>
+          <t>https://www.diamant.ie/promotion</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://rocks.ie/leaflet</t>
+          <t>https://rocks.ie/outlet</t>
         </is>
       </c>
       <c r="F282" t="n">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://rocks.ie/catalog</t>
+          <t>https://rocks.ie/leaflet</t>
         </is>
       </c>
       <c r="F283" t="n">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://rocks.ie/weeklyad</t>
+          <t>https://rocks.ie/catalog</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://rocks.ie/weekly-ad</t>
+          <t>https://rocks.ie/weeklyad</t>
         </is>
       </c>
       <c r="F285" t="n">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://rocks.ie/deals</t>
+          <t>https://rocks.ie/weekly-ad</t>
         </is>
       </c>
       <c r="F286" t="n">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -11898,7 +11898,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://rocks.ie/clearance</t>
+          <t>https://rocks.ie/deals</t>
         </is>
       </c>
       <c r="F287" t="n">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://rocks.ie/promotion</t>
+          <t>https://rocks.ie/clearance</t>
         </is>
       </c>
       <c r="F288" t="n">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://rocks.ie/offer</t>
+          <t>https://rocks.ie/promotion</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -11991,14 +11991,14 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>R&amp;C McCormack</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -12008,17 +12008,17 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/</t>
+          <t>https://rocks.ie/</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>celticdublin.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/deals</t>
+          <t>https://rocks.ie/offer</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/clearance</t>
+          <t>https://celticdublin.com/deals</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/promotion</t>
+          <t>https://celticdublin.com/clearance</t>
         </is>
       </c>
       <c r="F292" t="n">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/offer</t>
+          <t>https://celticdublin.com/promotion</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/sales</t>
+          <t>https://celticdublin.com/offer</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -12218,7 +12218,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/sale</t>
+          <t>https://celticdublin.com/sales</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -12231,14 +12231,14 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Diamant</t>
+          <t>R&amp;C McCormack</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/</t>
+          <t>https://celticdublin.com/</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>www.diamant.ie</t>
+          <t>celticdublin.com</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/outlet</t>
+          <t>https://celticdublin.com/sale</t>
         </is>
       </c>
       <c r="F296" t="n">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/leaflet</t>
+          <t>https://www.diamant.ie/outlet</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -12311,7 +12311,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/catalog</t>
+          <t>https://www.diamant.ie/leaflet</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/weeklyad</t>
+          <t>https://www.diamant.ie/catalog</t>
         </is>
       </c>
       <c r="F299" t="n">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/weekly-ad</t>
+          <t>https://www.diamant.ie/weeklyad</t>
         </is>
       </c>
       <c r="F300" t="n">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12458,7 +12458,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/deals</t>
+          <t>https://www.diamant.ie/weekly-ad</t>
         </is>
       </c>
       <c r="F301" t="n">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://www.diamant.ie/clearance</t>
+          <t>https://www.diamant.ie/deals</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -12511,14 +12511,14 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Diamant</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -12528,30 +12528,30 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://rocks.ie/</t>
+          <t>https://www.diamant.ie/</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.diamant.ie</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://www.diamant.ie/clearance</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>homepage_scan</t>
+          <t>common_path</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -12871,34 +12871,34 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/</t>
+          <t>https://rocks.ie/</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/Sale</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:34+00:00</t>
+          <t>2026-02-20T09:58:01+00:00</t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:23+00:00</t>
+          <t>2026-02-20T09:57:51+00:00</t>
         </is>
       </c>
     </row>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://rocks.ie/brochure</t>
+          <t>https://rocks.ie/deal</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:40+00:00</t>
+          <t>2026-02-20T09:58:06+00:00</t>
         </is>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:30+00:00</t>
+          <t>2026-02-20T09:57:57+00:00</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:13+00:00</t>
+          <t>2026-02-20T09:56:41+00:00</t>
         </is>
       </c>
     </row>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://rocks.ie/deal</t>
+          <t>https://rocks.ie/brochure</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:56+00:00</t>
+          <t>2026-02-20T09:58:25+00:00</t>
         </is>
       </c>
     </row>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:45+00:00</t>
+          <t>2026-02-20T09:58:14+00:00</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:10+00:00</t>
+          <t>2026-02-20T09:56:37+00:00</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:56+00:00</t>
+          <t>2026-02-20T09:57:24+00:00</t>
         </is>
       </c>
     </row>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:18+00:00</t>
+          <t>2026-02-20T09:56:45+00:00</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:15+00:00</t>
+          <t>2026-02-20T09:57:43+00:00</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:04+00:00</t>
+          <t>2026-02-20T09:57:32+00:00</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:22+00:00</t>
+          <t>2026-02-20T09:56:50+00:00</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:47+00:00</t>
+          <t>2026-02-20T09:57:16+00:00</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:43+00:00</t>
+          <t>2026-02-20T09:57:12+00:00</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:31+00:00</t>
+          <t>2026-02-20T09:56:59+00:00</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2026-02-19T10:04:27+00:00</t>
+          <t>2026-02-20T09:56:55+00:00</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2026-02-19T10:05:52+00:00</t>
+          <t>2026-02-20T09:58:19+00:00</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2026-02-19T10:06:02+00:00</t>
+          <t>2026-02-20T09:58:29+00:00</t>
         </is>
       </c>
     </row>

--- a/promo_urls.xlsx
+++ b/promo_urls.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/value-offers.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/value-offers.html</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -12911,7 +12911,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/Sale</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:01+00:00</t>
+          <t>2026-02-21T09:46:02+00:00</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:51+00:00</t>
+          <t>2026-02-21T09:45:51+00:00</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:06+00:00</t>
+          <t>2026-02-21T09:46:07+00:00</t>
         </is>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:57+00:00</t>
+          <t>2026-02-21T09:45:57+00:00</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:41+00:00</t>
+          <t>2026-02-21T09:44:41+00:00</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:25+00:00</t>
+          <t>2026-02-21T09:46:23+00:00</t>
         </is>
       </c>
     </row>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:14+00:00</t>
+          <t>2026-02-21T09:46:14+00:00</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:37+00:00</t>
+          <t>2026-02-21T09:44:37+00:00</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:24+00:00</t>
+          <t>2026-02-21T09:45:23+00:00</t>
         </is>
       </c>
     </row>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:45+00:00</t>
+          <t>2026-02-21T09:44:45+00:00</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:43+00:00</t>
+          <t>2026-02-21T09:45:43+00:00</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:32+00:00</t>
+          <t>2026-02-21T09:45:31+00:00</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:50+00:00</t>
+          <t>2026-02-21T09:44:50+00:00</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:16+00:00</t>
+          <t>2026-02-21T09:45:15+00:00</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2026-02-20T09:57:12+00:00</t>
+          <t>2026-02-21T09:45:10+00:00</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:59+00:00</t>
+          <t>2026-02-21T09:44:58+00:00</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2026-02-20T09:56:55+00:00</t>
+          <t>2026-02-21T09:44:55+00:00</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:19+00:00</t>
+          <t>2026-02-21T09:46:18+00:00</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2026-02-20T09:58:29+00:00</t>
+          <t>2026-02-21T09:46:28+00:00</t>
         </is>
       </c>
     </row>
